--- a/size_curve.xlsx
+++ b/size_curve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adidasgroup-my.sharepoint.com/personal/yevhen_popov_adidas_com/Documents/Documents/hype_allocation/hype_allocation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1747E79E-2A5D-40B1-8B32-27230B75A80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1747E79E-2A5D-40B1-8B32-27230B75A80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C4C0E1F-6C00-42A6-9291-34293064383F}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{8C9B2306-C840-4C03-BEB8-7803690C15B8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8C9B2306-C840-4C03-BEB8-7803690C15B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>sku</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>SKU_M01</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
 </sst>
 </file>
@@ -454,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3986A224-6A92-45D2-93DE-A0F01CBDB3FF}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -603,17 +600,6 @@
       </c>
       <c r="C13" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
